--- a/GSTCollection/2018.xlsx
+++ b/GSTCollection/2018.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\modip\Desktop\pythonProject\GSTCollection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FSD-2\PythonProjectSem4\dta\DigitalTransactionAnalysis\GSTCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4816BFE8-F939-42F6-9346-691B5360B6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46EC0FB-AA23-41E8-BC15-8B4D09440E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,17 @@
     <sheet name="collection_2017_18" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -145,9 +156,6 @@
     <t>CBIC</t>
   </si>
   <si>
-    <t xml:space="preserve">* State Code 99 reprents the Tax Payersof OIDAR (Online Information Database Access and Retrieval services) such as NETFLEX, AMAZON PRIME, ETC </t>
-  </si>
-  <si>
     <t>*  State Code 97 represents  territories other than States/UTs</t>
   </si>
   <si>
@@ -161,6 +169,9 @@
   </si>
   <si>
     <t>Andaman and Nicobar Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* State Code 99 reprents the Tax Payersof OIDAR (Online Information Database Access and Retrieval services) such as NETFLIX, AMAZON PRIME, ETC </t>
   </si>
 </sst>
 </file>
@@ -275,6 +286,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -286,12 +303,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,70 +637,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15">
+      <c r="C1" s="11">
         <v>42917</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11">
         <v>42948</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11">
         <v>42979</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15">
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11">
         <v>43009</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15">
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11">
         <v>43040</v>
       </c>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15">
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11">
         <v>43070</v>
       </c>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15">
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11">
         <v>43101</v>
       </c>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15">
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11">
         <v>43132</v>
       </c>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15">
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11">
         <v>43160</v>
       </c>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
     </row>
     <row r="2" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
@@ -3261,7 +3272,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="2">
         <v>0.57941710000000002</v>
@@ -3495,7 +3506,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2">
         <v>0.1974158</v>
@@ -3846,7 +3857,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="2">
         <v>1.2138059000000001</v>
@@ -4657,7 +4668,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="2">
         <v>1.9999999999999999E-7</v>
@@ -5174,10 +5185,10 @@
       <c r="AN40" s="9"/>
     </row>
     <row r="41" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="13"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="5">
         <v>9.9740397999999999</v>
       </c>
@@ -5295,27 +5306,32 @@
       </c>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
+      <c r="A44" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
+      <c r="A46" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AA1:AD1"/>
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="AI1:AL1"/>
@@ -5325,11 +5341,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
